--- a/mappings/wholefoods/item_mapping.xlsx
+++ b/mappings/wholefoods/item_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risha\VS CODE PROJECTS\wholefoods-to-xoro\mappings\wholefoods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051079B6-2F91-4806-8C59-6C65C07B105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB5FEE-7105-449C-AE02-34D8F5C2E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBEEB0EC-E942-45B6-8410-D5E6137E722D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBEEB0EC-E942-45B6-8410-D5E6137E722D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>17-041-7</t>
   </si>
@@ -119,15 +119,6 @@
     <t>13-025-20</t>
   </si>
   <si>
-    <t>13-035-6</t>
-  </si>
-  <si>
-    <t>13-035-7</t>
-  </si>
-  <si>
-    <t>Not approved items, disco items but on orders</t>
-  </si>
-  <si>
     <t>13-025-14</t>
   </si>
   <si>
@@ -135,6 +126,18 @@
   </si>
   <si>
     <t>Xoro_ItemNo</t>
+  </si>
+  <si>
+    <t>13-025-25</t>
+  </si>
+  <si>
+    <t>13-025-26</t>
+  </si>
+  <si>
+    <t>9-031-1</t>
+  </si>
+  <si>
+    <t>9-088-1</t>
   </si>
 </sst>
 </file>
@@ -165,18 +168,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,17 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,244 +535,254 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>130251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1302514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1302515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1302517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>130252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1302520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>130253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>130254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>130255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>130256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>130257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>130258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>130259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>170411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>170417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>170512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>170417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>170512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>130252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>130251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>130253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>130254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>130255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>130256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1302515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>130257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>170411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1302517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4">
-        <v>130258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>130259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4">
-        <v>6016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1302520</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1302514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
-        <v>130356</v>
+      <c r="B29" s="3">
+        <v>90311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4">
-        <v>130357</v>
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3">
+        <v>90881</v>
       </c>
     </row>
   </sheetData>
